--- a/results/optimized_binary/20251125_054632_ana_optimized_binary_tomeklinks/20251125_054632_ana_optimized_binary_tomeklinks_importancia_consolidada.xlsx
+++ b/results/optimized_binary/20251125_054632_ana_optimized_binary_tomeklinks/20251125_054632_ana_optimized_binary_tomeklinks_importancia_consolidada.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,6 +601,29 @@
       </c>
       <c r="G6" t="n">
         <v>0.0172</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.81358</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04352</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03838</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.08694</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01756</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,6 +865,38 @@
       </c>
       <c r="J6" t="n">
         <v>0.0608</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.48274</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09974000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1685</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.06950000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.04306</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.02104</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02758</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,6 +1178,44 @@
       </c>
       <c r="L6" t="n">
         <v>0.0288</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.4132000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03242</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.11178</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.14264</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03162</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1332</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.05534</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.03508</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.02842</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.01622</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,6 +1417,32 @@
       </c>
       <c r="H6" t="n">
         <v>0.0702</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.4752</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.24904</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.11814</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0374</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04172</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.07847999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1545,6 +1664,35 @@
       </c>
       <c r="I6" t="n">
         <v>0.0476</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1181</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0636</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.12026</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.47114</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.04122</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.02068</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1726,6 +1874,29 @@
       </c>
       <c r="G6" t="n">
         <v>0.0147</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.72248</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.11792</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05308</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05262</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0539</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +1910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1887,6 +2058,26 @@
       </c>
       <c r="F6" t="n">
         <v>0.0021</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.9925200000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00384</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.00114</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +2091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2108,6 +2299,35 @@
       </c>
       <c r="I6" t="n">
         <v>0.06469999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.7985</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.10134</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02872</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01256</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0188</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02194</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0182</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2351,6 +2571,38 @@
         <v>0.0223</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.1045</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.39536</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.06968000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05623999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.12626</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.12044</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.05751999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.06992000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
